--- a/data/pca/factorExposure/factorExposure_2015-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01871994038368638</v>
+        <v>0.01361483965847168</v>
       </c>
       <c r="C2">
-        <v>0.03068664116885279</v>
+        <v>0.0456790200779345</v>
       </c>
       <c r="D2">
-        <v>-0.1331574761526723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.141361741345094</v>
+      </c>
+      <c r="E2">
+        <v>0.002787375520491372</v>
+      </c>
+      <c r="F2">
+        <v>0.0003701235927619938</v>
+      </c>
+      <c r="G2">
+        <v>0.1123732061704899</v>
+      </c>
+      <c r="H2">
+        <v>-0.03941422620221541</v>
+      </c>
+      <c r="I2">
+        <v>-0.0653480273993092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02762430896317133</v>
+        <v>-0.02442158333904742</v>
       </c>
       <c r="C3">
-        <v>0.0359454601723883</v>
+        <v>0.01682214738363261</v>
       </c>
       <c r="D3">
-        <v>-0.01583433805119855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.02306816463702739</v>
+      </c>
+      <c r="E3">
+        <v>0.04476209251419774</v>
+      </c>
+      <c r="F3">
+        <v>0.02320309242460154</v>
+      </c>
+      <c r="G3">
+        <v>0.1039897663129018</v>
+      </c>
+      <c r="H3">
+        <v>-0.008910763649941365</v>
+      </c>
+      <c r="I3">
+        <v>0.06599965281657691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03197816897718528</v>
+        <v>0.02391789120232217</v>
       </c>
       <c r="C4">
-        <v>0.06945940252968316</v>
+        <v>0.08706362203328473</v>
       </c>
       <c r="D4">
-        <v>-0.1404870824338475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1526885875640165</v>
+      </c>
+      <c r="E4">
+        <v>0.02131535107699475</v>
+      </c>
+      <c r="F4">
+        <v>0.08262868250809169</v>
+      </c>
+      <c r="G4">
+        <v>-0.003790046606885467</v>
+      </c>
+      <c r="H4">
+        <v>-0.04388412638497666</v>
+      </c>
+      <c r="I4">
+        <v>-0.007702415245322615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02132602454163192</v>
+        <v>0.0226256698958662</v>
       </c>
       <c r="C6">
-        <v>0.01619551057831313</v>
+        <v>0.02909669772037021</v>
       </c>
       <c r="D6">
-        <v>-0.1528531893167719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1329419827811491</v>
+      </c>
+      <c r="E6">
+        <v>-0.03491327078203189</v>
+      </c>
+      <c r="F6">
+        <v>0.05419935768539777</v>
+      </c>
+      <c r="G6">
+        <v>0.04789079278911499</v>
+      </c>
+      <c r="H6">
+        <v>-0.02544668614943266</v>
+      </c>
+      <c r="I6">
+        <v>0.02067394209534506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.009275728441722321</v>
+        <v>0.007086467098118524</v>
       </c>
       <c r="C7">
-        <v>0.0271192838743533</v>
+        <v>0.03515635623432289</v>
       </c>
       <c r="D7">
-        <v>-0.1157981442441298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09664201722181261</v>
+      </c>
+      <c r="E7">
+        <v>-0.04219381248942651</v>
+      </c>
+      <c r="F7">
+        <v>0.007846445458866416</v>
+      </c>
+      <c r="G7">
+        <v>0.03772704367999163</v>
+      </c>
+      <c r="H7">
+        <v>-0.05864489789521649</v>
+      </c>
+      <c r="I7">
+        <v>0.04237136171856455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001898570495178206</v>
+        <v>-0.004363325018176773</v>
       </c>
       <c r="C8">
-        <v>0.03239470027447171</v>
+        <v>0.03869601350940761</v>
       </c>
       <c r="D8">
-        <v>-0.08462992340778147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08345952109747906</v>
+      </c>
+      <c r="E8">
+        <v>-0.01247619241470581</v>
+      </c>
+      <c r="F8">
+        <v>0.0482346949438157</v>
+      </c>
+      <c r="G8">
+        <v>0.0934525223001903</v>
+      </c>
+      <c r="H8">
+        <v>0.01183368479028967</v>
+      </c>
+      <c r="I8">
+        <v>0.03415927134332066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02676350123545522</v>
+        <v>0.01801726040851589</v>
       </c>
       <c r="C9">
-        <v>0.06566931029898557</v>
+        <v>0.07810266260342121</v>
       </c>
       <c r="D9">
-        <v>-0.1329477557736183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1286414689202848</v>
+      </c>
+      <c r="E9">
+        <v>0.01026999921924073</v>
+      </c>
+      <c r="F9">
+        <v>0.04849102637566861</v>
+      </c>
+      <c r="G9">
+        <v>-0.00398898279064964</v>
+      </c>
+      <c r="H9">
+        <v>-0.04909642725587007</v>
+      </c>
+      <c r="I9">
+        <v>-0.0009416859844604282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1607671576505915</v>
+        <v>0.2123153759293484</v>
       </c>
       <c r="C10">
-        <v>-0.1638136796216465</v>
+        <v>-0.1241057148428894</v>
       </c>
       <c r="D10">
-        <v>-0.02104794690086577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01118522202713294</v>
+      </c>
+      <c r="E10">
+        <v>0.02848648837331566</v>
+      </c>
+      <c r="F10">
+        <v>0.04958011296255068</v>
+      </c>
+      <c r="G10">
+        <v>-0.004918521559767298</v>
+      </c>
+      <c r="H10">
+        <v>0.060042198085219</v>
+      </c>
+      <c r="I10">
+        <v>0.1086347176688406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0208584453876605</v>
+        <v>0.01315478565311461</v>
       </c>
       <c r="C11">
-        <v>0.04458326581416155</v>
+        <v>0.05289365672628507</v>
       </c>
       <c r="D11">
-        <v>-0.05602340508107746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0502714532941165</v>
+      </c>
+      <c r="E11">
+        <v>-0.02018209336115589</v>
+      </c>
+      <c r="F11">
+        <v>-0.013700980794664</v>
+      </c>
+      <c r="G11">
+        <v>0.01049345037328498</v>
+      </c>
+      <c r="H11">
+        <v>-0.04405976607706111</v>
+      </c>
+      <c r="I11">
+        <v>-0.002776832769598831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02260942432486064</v>
+        <v>0.0141332961113984</v>
       </c>
       <c r="C12">
-        <v>0.04240576233380396</v>
+        <v>0.04894783033795796</v>
       </c>
       <c r="D12">
-        <v>-0.06786659668075588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05219753536535385</v>
+      </c>
+      <c r="E12">
+        <v>-0.01571884048081397</v>
+      </c>
+      <c r="F12">
+        <v>-0.01533753380293288</v>
+      </c>
+      <c r="G12">
+        <v>0.008331599992774238</v>
+      </c>
+      <c r="H12">
+        <v>-0.07235133236590297</v>
+      </c>
+      <c r="I12">
+        <v>0.006114058059462648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001659853972129933</v>
+        <v>0.001933123285381423</v>
       </c>
       <c r="C13">
-        <v>0.02791629535279179</v>
+        <v>0.0404046063857525</v>
       </c>
       <c r="D13">
-        <v>-0.1542470916674135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1597608076531676</v>
+      </c>
+      <c r="E13">
+        <v>-0.03923803307497593</v>
+      </c>
+      <c r="F13">
+        <v>0.04292520716600009</v>
+      </c>
+      <c r="G13">
+        <v>0.05786350246644338</v>
+      </c>
+      <c r="H13">
+        <v>-0.05264985034466196</v>
+      </c>
+      <c r="I13">
+        <v>0.06225100108125495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004871775816345273</v>
+        <v>-0.001463361827727471</v>
       </c>
       <c r="C14">
-        <v>0.02281358055508584</v>
+        <v>0.02661862834433115</v>
       </c>
       <c r="D14">
-        <v>-0.110076285389451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1072855302135114</v>
+      </c>
+      <c r="E14">
+        <v>-0.01925844841716579</v>
+      </c>
+      <c r="F14">
+        <v>0.01899631336872085</v>
+      </c>
+      <c r="G14">
+        <v>0.06456610479371828</v>
+      </c>
+      <c r="H14">
+        <v>-0.09910346336360931</v>
+      </c>
+      <c r="I14">
+        <v>0.009406998241028846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002633598315318197</v>
+        <v>-9.370745343652166e-05</v>
       </c>
       <c r="C15">
-        <v>0.01137524021366085</v>
+        <v>0.01642049125848527</v>
       </c>
       <c r="D15">
-        <v>-0.02375897024993431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04816370735941594</v>
+      </c>
+      <c r="E15">
+        <v>-0.00430338163633321</v>
+      </c>
+      <c r="F15">
+        <v>0.001324697578322426</v>
+      </c>
+      <c r="G15">
+        <v>0.02274498710837341</v>
+      </c>
+      <c r="H15">
+        <v>-0.01143490564767674</v>
+      </c>
+      <c r="I15">
+        <v>-0.02151337967421581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01944202278529914</v>
+        <v>0.01327698025597879</v>
       </c>
       <c r="C16">
-        <v>0.04021727794096297</v>
+        <v>0.04720226020560973</v>
       </c>
       <c r="D16">
-        <v>-0.06393180572978907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05101248421765064</v>
+      </c>
+      <c r="E16">
+        <v>-0.01965172465173983</v>
+      </c>
+      <c r="F16">
+        <v>-0.006952298536609464</v>
+      </c>
+      <c r="G16">
+        <v>0.004458916475616441</v>
+      </c>
+      <c r="H16">
+        <v>-0.05142546754055522</v>
+      </c>
+      <c r="I16">
+        <v>-0.0005426599104657442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.002529220812256395</v>
+        <v>-0.004097099905422302</v>
       </c>
       <c r="C19">
-        <v>0.02514457516168325</v>
+        <v>0.01940137708147119</v>
       </c>
       <c r="D19">
-        <v>-0.1417675068263505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09631031326147567</v>
+      </c>
+      <c r="E19">
+        <v>0.02146519995450706</v>
+      </c>
+      <c r="F19">
+        <v>0.009542180251088498</v>
+      </c>
+      <c r="G19">
+        <v>0.03799252771768612</v>
+      </c>
+      <c r="H19">
+        <v>-0.06476208625579238</v>
+      </c>
+      <c r="I19">
+        <v>0.03105790243735878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.001977737512892906</v>
+        <v>0.003382687540516204</v>
       </c>
       <c r="C20">
-        <v>0.03136547567794413</v>
+        <v>0.03777331899490105</v>
       </c>
       <c r="D20">
-        <v>-0.09460564604003323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1030893644413392</v>
+      </c>
+      <c r="E20">
+        <v>0.003653582713985237</v>
+      </c>
+      <c r="F20">
+        <v>0.03080536837227377</v>
+      </c>
+      <c r="G20">
+        <v>0.03993889457057123</v>
+      </c>
+      <c r="H20">
+        <v>-0.05722851729040282</v>
+      </c>
+      <c r="I20">
+        <v>0.02269111382427049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0005441457855070778</v>
+        <v>-0.001554898875505145</v>
       </c>
       <c r="C21">
-        <v>0.03605612218873743</v>
+        <v>0.04224151621453739</v>
       </c>
       <c r="D21">
-        <v>-0.1735546089809401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1491047141118035</v>
+      </c>
+      <c r="E21">
+        <v>0.01520877546847616</v>
+      </c>
+      <c r="F21">
+        <v>0.06098934202572376</v>
+      </c>
+      <c r="G21">
+        <v>0.07320968065425124</v>
+      </c>
+      <c r="H21">
+        <v>-0.1437269783922044</v>
+      </c>
+      <c r="I21">
+        <v>0.07209593713102799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003681804018806319</v>
+        <v>-0.003768950354868474</v>
       </c>
       <c r="C22">
-        <v>0.05492603571947185</v>
+        <v>0.06725007893257878</v>
       </c>
       <c r="D22">
-        <v>-0.1887573884113121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2353956817776478</v>
+      </c>
+      <c r="E22">
+        <v>-0.0472571197346777</v>
+      </c>
+      <c r="F22">
+        <v>0.02126982086510971</v>
+      </c>
+      <c r="G22">
+        <v>0.1490843037556135</v>
+      </c>
+      <c r="H22">
+        <v>0.4725569478682253</v>
+      </c>
+      <c r="I22">
+        <v>-0.2172468362155765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003502141637039764</v>
+        <v>-0.003343959267006235</v>
       </c>
       <c r="C23">
-        <v>0.05534637148046678</v>
+        <v>0.06813941682455829</v>
       </c>
       <c r="D23">
-        <v>-0.1883260439124755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2361437844734494</v>
+      </c>
+      <c r="E23">
+        <v>-0.04438964152833409</v>
+      </c>
+      <c r="F23">
+        <v>0.02024719822844905</v>
+      </c>
+      <c r="G23">
+        <v>0.1476583749844144</v>
+      </c>
+      <c r="H23">
+        <v>0.4725373042476749</v>
+      </c>
+      <c r="I23">
+        <v>-0.2187552362095237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02603726222561709</v>
+        <v>0.01496817006348829</v>
       </c>
       <c r="C24">
-        <v>0.0590840592945208</v>
+        <v>0.06409926515697356</v>
       </c>
       <c r="D24">
-        <v>-0.07369968779280864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05898664286806993</v>
+      </c>
+      <c r="E24">
+        <v>-0.02070237850560298</v>
+      </c>
+      <c r="F24">
+        <v>-0.005928193151624734</v>
+      </c>
+      <c r="G24">
+        <v>0.01789850282941698</v>
+      </c>
+      <c r="H24">
+        <v>-0.07552970867852746</v>
+      </c>
+      <c r="I24">
+        <v>-0.004237864735456816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02915619302001736</v>
+        <v>0.01881525251482577</v>
       </c>
       <c r="C25">
-        <v>0.05073661023065253</v>
+        <v>0.05982020099489421</v>
       </c>
       <c r="D25">
-        <v>-0.06980802274683226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05891537959912486</v>
+      </c>
+      <c r="E25">
+        <v>-0.008851613482681533</v>
+      </c>
+      <c r="F25">
+        <v>-0.008637332892146472</v>
+      </c>
+      <c r="G25">
+        <v>0.004921950363311162</v>
+      </c>
+      <c r="H25">
+        <v>-0.04632404805221327</v>
+      </c>
+      <c r="I25">
+        <v>0.002490679027213115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003814153338022333</v>
+        <v>0.004970146093878284</v>
       </c>
       <c r="C26">
-        <v>0.01480493500878558</v>
+        <v>0.02212961926553538</v>
       </c>
       <c r="D26">
-        <v>-0.07761650612581263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0734076833383815</v>
+      </c>
+      <c r="E26">
+        <v>-0.01861627275592604</v>
+      </c>
+      <c r="F26">
+        <v>0.02424991648252572</v>
+      </c>
+      <c r="G26">
+        <v>0.03518774247036451</v>
+      </c>
+      <c r="H26">
+        <v>-0.06547024357741869</v>
+      </c>
+      <c r="I26">
+        <v>0.04151381489430695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2448085277278305</v>
+        <v>0.3076085777587214</v>
       </c>
       <c r="C28">
-        <v>-0.2074199735775052</v>
+        <v>-0.1446433722689509</v>
       </c>
       <c r="D28">
-        <v>-0.02020722807513494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004956942562621355</v>
+      </c>
+      <c r="E28">
+        <v>0.04796564381449354</v>
+      </c>
+      <c r="F28">
+        <v>0.0350480412543956</v>
+      </c>
+      <c r="G28">
+        <v>-0.02540956134964864</v>
+      </c>
+      <c r="H28">
+        <v>0.02593580939523756</v>
+      </c>
+      <c r="I28">
+        <v>0.07362649750195448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.005021817930221303</v>
+        <v>-0.001551864116241251</v>
       </c>
       <c r="C29">
-        <v>0.02075527774674061</v>
+        <v>0.02602629832420787</v>
       </c>
       <c r="D29">
-        <v>-0.1030479067099503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1044658093848254</v>
+      </c>
+      <c r="E29">
+        <v>-0.03314498120432661</v>
+      </c>
+      <c r="F29">
+        <v>0.02983332871474906</v>
+      </c>
+      <c r="G29">
+        <v>0.0505939007322289</v>
+      </c>
+      <c r="H29">
+        <v>-0.09729914408467855</v>
+      </c>
+      <c r="I29">
+        <v>0.01925647456652257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0131366330709373</v>
+        <v>0.0140029477005334</v>
       </c>
       <c r="C30">
-        <v>0.06245915073747273</v>
+        <v>0.07766427697986415</v>
       </c>
       <c r="D30">
-        <v>-0.1699251106135165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1721173573073167</v>
+      </c>
+      <c r="E30">
+        <v>-0.03881447123681988</v>
+      </c>
+      <c r="F30">
+        <v>0.03404460634465827</v>
+      </c>
+      <c r="G30">
+        <v>0.03778165579082426</v>
+      </c>
+      <c r="H30">
+        <v>-0.03738049496307524</v>
+      </c>
+      <c r="I30">
+        <v>-0.0482034000458629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03878747891302869</v>
+        <v>0.01840580198147139</v>
       </c>
       <c r="C31">
-        <v>0.08368683247395911</v>
+        <v>0.08770652711722358</v>
       </c>
       <c r="D31">
-        <v>-0.07908615046044407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04776749203944406</v>
+      </c>
+      <c r="E31">
+        <v>-0.007750654849896869</v>
+      </c>
+      <c r="F31">
+        <v>0.01839735080239237</v>
+      </c>
+      <c r="G31">
+        <v>0.02355912806970479</v>
+      </c>
+      <c r="H31">
+        <v>-0.03866674670949902</v>
+      </c>
+      <c r="I31">
+        <v>0.05567935628613214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02009211348174901</v>
+        <v>0.0169985297253977</v>
       </c>
       <c r="C32">
-        <v>0.03194248889116293</v>
+        <v>0.03719282738018851</v>
       </c>
       <c r="D32">
-        <v>-0.1106458881046014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.117433730087059</v>
+      </c>
+      <c r="E32">
+        <v>-0.002415415640715169</v>
+      </c>
+      <c r="F32">
+        <v>0.0424608370262648</v>
+      </c>
+      <c r="G32">
+        <v>0.02632117173504133</v>
+      </c>
+      <c r="H32">
+        <v>-0.01631410099810493</v>
+      </c>
+      <c r="I32">
+        <v>0.06793128402500279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01134478285717868</v>
+        <v>0.009804997573463366</v>
       </c>
       <c r="C33">
-        <v>0.04206580936321028</v>
+        <v>0.05227352026103661</v>
       </c>
       <c r="D33">
-        <v>-0.1529015444321176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1344224793927928</v>
+      </c>
+      <c r="E33">
+        <v>-0.01290979500665083</v>
+      </c>
+      <c r="F33">
+        <v>0.02247663353009353</v>
+      </c>
+      <c r="G33">
+        <v>0.02851397622801262</v>
+      </c>
+      <c r="H33">
+        <v>-0.05658530544644909</v>
+      </c>
+      <c r="I33">
+        <v>0.006758571006814437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02484297014470621</v>
+        <v>0.01278804520883112</v>
       </c>
       <c r="C34">
-        <v>0.05948459847427671</v>
+        <v>0.06300127151918612</v>
       </c>
       <c r="D34">
-        <v>-0.05534837233984439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03789898411352353</v>
+      </c>
+      <c r="E34">
+        <v>-0.02934799441629593</v>
+      </c>
+      <c r="F34">
+        <v>-0.03547475575836007</v>
+      </c>
+      <c r="G34">
+        <v>0.01421831136453598</v>
+      </c>
+      <c r="H34">
+        <v>-0.05677080746195695</v>
+      </c>
+      <c r="I34">
+        <v>0.01386292856468924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001374076533743227</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003584628267286272</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01439083761216788</v>
+      </c>
+      <c r="E35">
+        <v>-0.001753971060142414</v>
+      </c>
+      <c r="F35">
+        <v>-0.001541760246190751</v>
+      </c>
+      <c r="G35">
+        <v>0.0007279218313090839</v>
+      </c>
+      <c r="H35">
+        <v>-0.00711417053606245</v>
+      </c>
+      <c r="I35">
+        <v>-0.003657895949803144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009093420336257638</v>
+        <v>0.01112047187068954</v>
       </c>
       <c r="C36">
-        <v>0.005310985459080981</v>
+        <v>0.01728265287806529</v>
       </c>
       <c r="D36">
-        <v>-0.09953382096672443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08901468176572218</v>
+      </c>
+      <c r="E36">
+        <v>-0.006693189547754737</v>
+      </c>
+      <c r="F36">
+        <v>0.03109743058512675</v>
+      </c>
+      <c r="G36">
+        <v>0.02172448100834521</v>
+      </c>
+      <c r="H36">
+        <v>-0.05690317953008687</v>
+      </c>
+      <c r="I36">
+        <v>0.01711772642350924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.009007340773904051</v>
+        <v>0.01669461162669645</v>
       </c>
       <c r="C38">
-        <v>0.01045689061748723</v>
+        <v>0.01617176195269753</v>
       </c>
       <c r="D38">
-        <v>-0.08656284337763376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08578441501070053</v>
+      </c>
+      <c r="E38">
+        <v>0.01305993432091283</v>
+      </c>
+      <c r="F38">
+        <v>-0.01400818452040384</v>
+      </c>
+      <c r="G38">
+        <v>0.03722730725188333</v>
+      </c>
+      <c r="H38">
+        <v>-0.04282816052274108</v>
+      </c>
+      <c r="I38">
+        <v>0.009566309451207887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.0217141246948387</v>
+        <v>0.01256779480696557</v>
       </c>
       <c r="C39">
-        <v>0.05800810555882934</v>
+        <v>0.07314859518176828</v>
       </c>
       <c r="D39">
-        <v>-0.1061942845198208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1029935478309051</v>
+      </c>
+      <c r="E39">
+        <v>-0.04579895453862154</v>
+      </c>
+      <c r="F39">
+        <v>-0.0130890215879593</v>
+      </c>
+      <c r="G39">
+        <v>0.02032768502146219</v>
+      </c>
+      <c r="H39">
+        <v>-0.0937460019085455</v>
+      </c>
+      <c r="I39">
+        <v>-0.04560068788625957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.008574691757707574</v>
+        <v>0.00468660231246827</v>
       </c>
       <c r="C40">
-        <v>0.04167741324582026</v>
+        <v>0.03917789655850579</v>
       </c>
       <c r="D40">
-        <v>-0.118499315494977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1021379780113121</v>
+      </c>
+      <c r="E40">
+        <v>-0.01666252866531445</v>
+      </c>
+      <c r="F40">
+        <v>0.02514286905389165</v>
+      </c>
+      <c r="G40">
+        <v>0.2485798062935354</v>
+      </c>
+      <c r="H40">
+        <v>-0.01607499349396866</v>
+      </c>
+      <c r="I40">
+        <v>0.1309174000555655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.02007694676179015</v>
+        <v>0.01886248744629658</v>
       </c>
       <c r="C41">
-        <v>0.0002767094248774663</v>
+        <v>0.01069913340014107</v>
       </c>
       <c r="D41">
-        <v>-0.07339240923873755</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05100397897672049</v>
+      </c>
+      <c r="E41">
+        <v>0.01960164779790365</v>
+      </c>
+      <c r="F41">
+        <v>0.01510425489991158</v>
+      </c>
+      <c r="G41">
+        <v>0.02709544457002254</v>
+      </c>
+      <c r="H41">
+        <v>-0.02474187031395299</v>
+      </c>
+      <c r="I41">
+        <v>0.04530875813992031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0126060994938037</v>
+        <v>0.01097936971393729</v>
       </c>
       <c r="C43">
-        <v>0.007497989063677418</v>
+        <v>0.01460366385910224</v>
       </c>
       <c r="D43">
-        <v>-0.08973480369743178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06475662834406491</v>
+      </c>
+      <c r="E43">
+        <v>0.005569509516609002</v>
+      </c>
+      <c r="F43">
+        <v>0.01062238742145372</v>
+      </c>
+      <c r="G43">
+        <v>0.03305415592002921</v>
+      </c>
+      <c r="H43">
+        <v>-0.05499018003287802</v>
+      </c>
+      <c r="I43">
+        <v>0.04208791522709689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.001508386893337285</v>
+        <v>0.00243038562883975</v>
       </c>
       <c r="C44">
-        <v>0.03939712784859536</v>
+        <v>0.04266445258002457</v>
       </c>
       <c r="D44">
-        <v>-0.1002584518720497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1151116382156763</v>
+      </c>
+      <c r="E44">
+        <v>-0.0006645977747302786</v>
+      </c>
+      <c r="F44">
+        <v>0.02539714558264565</v>
+      </c>
+      <c r="G44">
+        <v>0.042362455606782</v>
+      </c>
+      <c r="H44">
+        <v>-0.04422291105181777</v>
+      </c>
+      <c r="I44">
+        <v>-0.03254562460424829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005296346453082276</v>
+        <v>0.0005346214342076296</v>
       </c>
       <c r="C46">
-        <v>0.02831643209904423</v>
+        <v>0.03386676025128377</v>
       </c>
       <c r="D46">
-        <v>-0.1087282021960484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09286064994947564</v>
+      </c>
+      <c r="E46">
+        <v>-0.01692879953836051</v>
+      </c>
+      <c r="F46">
+        <v>0.02387093777676745</v>
+      </c>
+      <c r="G46">
+        <v>0.05003900503253964</v>
+      </c>
+      <c r="H46">
+        <v>-0.1099711472802058</v>
+      </c>
+      <c r="I46">
+        <v>0.03050776996719711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07716238777823513</v>
+        <v>0.04660052282059858</v>
       </c>
       <c r="C47">
-        <v>0.1053169568541224</v>
+        <v>0.1170112216610027</v>
       </c>
       <c r="D47">
-        <v>-0.06047541565148736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02873467697232817</v>
+      </c>
+      <c r="E47">
+        <v>0.01110458299289827</v>
+      </c>
+      <c r="F47">
+        <v>-0.002034987674012459</v>
+      </c>
+      <c r="G47">
+        <v>-0.02096185836070476</v>
+      </c>
+      <c r="H47">
+        <v>-0.03942704663231009</v>
+      </c>
+      <c r="I47">
+        <v>0.1155584050646797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.003795833412974067</v>
+        <v>0.005262030341007631</v>
       </c>
       <c r="C48">
-        <v>0.01677933026563186</v>
+        <v>0.0249983938005732</v>
       </c>
       <c r="D48">
-        <v>-0.09387311989425151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08909240299895926</v>
+      </c>
+      <c r="E48">
+        <v>0.01108170189331037</v>
+      </c>
+      <c r="F48">
+        <v>0.03467715173145038</v>
+      </c>
+      <c r="G48">
+        <v>0.03957767187382958</v>
+      </c>
+      <c r="H48">
+        <v>-0.07214193937181802</v>
+      </c>
+      <c r="I48">
+        <v>0.01619243532349092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03575498579382656</v>
+        <v>0.01963964523758809</v>
       </c>
       <c r="C50">
-        <v>0.06352650589508795</v>
+        <v>0.07186896740551939</v>
       </c>
       <c r="D50">
-        <v>-0.08049343612366767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05871871194837364</v>
+      </c>
+      <c r="E50">
+        <v>-0.002550995570208565</v>
+      </c>
+      <c r="F50">
+        <v>0.00863767547890818</v>
+      </c>
+      <c r="G50">
+        <v>0.03516016489121458</v>
+      </c>
+      <c r="H50">
+        <v>-0.01891167819834536</v>
+      </c>
+      <c r="I50">
+        <v>0.09539267197112135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0005641282024465207</v>
+        <v>0.001044997093744992</v>
       </c>
       <c r="C51">
-        <v>0.0104391286065574</v>
+        <v>0.01779584780808508</v>
       </c>
       <c r="D51">
-        <v>-0.06919645013727017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07444469165800431</v>
+      </c>
+      <c r="E51">
+        <v>-0.02798234643392183</v>
+      </c>
+      <c r="F51">
+        <v>0.03628443682236599</v>
+      </c>
+      <c r="G51">
+        <v>0.05187984530442316</v>
+      </c>
+      <c r="H51">
+        <v>-0.04356909668095126</v>
+      </c>
+      <c r="I51">
+        <v>0.01016679164836797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09558430811644722</v>
+        <v>0.06594407317317116</v>
       </c>
       <c r="C53">
-        <v>0.1249935805050111</v>
+        <v>0.1474754470169248</v>
       </c>
       <c r="D53">
-        <v>-0.02465769170196076</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006707976387212203</v>
+      </c>
+      <c r="E53">
+        <v>0.04548271156446636</v>
+      </c>
+      <c r="F53">
+        <v>0.06805200232362005</v>
+      </c>
+      <c r="G53">
+        <v>0.03353963648966894</v>
+      </c>
+      <c r="H53">
+        <v>-0.0009458485765207006</v>
+      </c>
+      <c r="I53">
+        <v>0.100652931548671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0108992308803469</v>
+        <v>0.008158394325201178</v>
       </c>
       <c r="C54">
-        <v>0.02342483215798243</v>
+        <v>0.0341433798692451</v>
       </c>
       <c r="D54">
-        <v>-0.1160899813028126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09457547723391134</v>
+      </c>
+      <c r="E54">
+        <v>-0.009023046414189186</v>
+      </c>
+      <c r="F54">
+        <v>0.001204674188479459</v>
+      </c>
+      <c r="G54">
+        <v>0.06026812623586841</v>
+      </c>
+      <c r="H54">
+        <v>-0.06618791194690918</v>
+      </c>
+      <c r="I54">
+        <v>0.05760561279486669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.08794473222489693</v>
+        <v>0.05614886969169048</v>
       </c>
       <c r="C55">
-        <v>0.1047575347173886</v>
+        <v>0.1233233622735205</v>
       </c>
       <c r="D55">
-        <v>-0.008508125177480761</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01066074776253437</v>
+      </c>
+      <c r="E55">
+        <v>0.006427623040236659</v>
+      </c>
+      <c r="F55">
+        <v>0.03216386512918309</v>
+      </c>
+      <c r="G55">
+        <v>0.04218235347293003</v>
+      </c>
+      <c r="H55">
+        <v>0.01209373971547748</v>
+      </c>
+      <c r="I55">
+        <v>0.08044642051369225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1213741078898998</v>
+        <v>0.07855317829103463</v>
       </c>
       <c r="C56">
-        <v>0.1352249666379061</v>
+        <v>0.1717657318876966</v>
       </c>
       <c r="D56">
-        <v>-0.00468990134164577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01217300022894918</v>
+      </c>
+      <c r="E56">
+        <v>0.03793347787296521</v>
+      </c>
+      <c r="F56">
+        <v>0.02913929395568446</v>
+      </c>
+      <c r="G56">
+        <v>0.05338294267955702</v>
+      </c>
+      <c r="H56">
+        <v>0.02956830737617451</v>
+      </c>
+      <c r="I56">
+        <v>0.08415734716077444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02685301233579788</v>
+        <v>-0.009893271012065769</v>
       </c>
       <c r="C58">
-        <v>0.01996679256452079</v>
+        <v>0.04046741111603195</v>
       </c>
       <c r="D58">
-        <v>-0.2139719021900996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2868389183259507</v>
+      </c>
+      <c r="E58">
+        <v>0.03623793736745017</v>
+      </c>
+      <c r="F58">
+        <v>0.08667295175375252</v>
+      </c>
+      <c r="G58">
+        <v>0.07126186312169654</v>
+      </c>
+      <c r="H58">
+        <v>0.1519172230946775</v>
+      </c>
+      <c r="I58">
+        <v>-0.0646533772288047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1726427983210742</v>
+        <v>0.2277078005851134</v>
       </c>
       <c r="C59">
-        <v>-0.1467997677453527</v>
+        <v>-0.09902759198428875</v>
       </c>
       <c r="D59">
-        <v>-0.05238970300094306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0672164543708773</v>
+      </c>
+      <c r="E59">
+        <v>0.03537142307361448</v>
+      </c>
+      <c r="F59">
+        <v>0.007237423369207835</v>
+      </c>
+      <c r="G59">
+        <v>-0.003559031879770276</v>
+      </c>
+      <c r="H59">
+        <v>0.01573667272372619</v>
+      </c>
+      <c r="I59">
+        <v>-0.001402566597206099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2014224714969515</v>
+        <v>0.1657166544268891</v>
       </c>
       <c r="C60">
-        <v>0.1115509530188678</v>
+        <v>0.1647714482414259</v>
       </c>
       <c r="D60">
-        <v>-0.1615254512074714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0804438887217699</v>
+      </c>
+      <c r="E60">
+        <v>-0.2623275381748909</v>
+      </c>
+      <c r="F60">
+        <v>-0.1568364753384347</v>
+      </c>
+      <c r="G60">
+        <v>-0.2553649504807923</v>
+      </c>
+      <c r="H60">
+        <v>0.1076864363110422</v>
+      </c>
+      <c r="I60">
+        <v>-0.03125179420834085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03050087117057094</v>
+        <v>0.01851945491857411</v>
       </c>
       <c r="C61">
-        <v>0.05879603313626219</v>
+        <v>0.07036011771325566</v>
       </c>
       <c r="D61">
-        <v>-0.117379533370673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09099308949885145</v>
+      </c>
+      <c r="E61">
+        <v>-0.03418928935076419</v>
+      </c>
+      <c r="F61">
+        <v>-0.01627967369634646</v>
+      </c>
+      <c r="G61">
+        <v>0.008069019659729948</v>
+      </c>
+      <c r="H61">
+        <v>-0.09615853662062278</v>
+      </c>
+      <c r="I61">
+        <v>0.0223972178594728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007416575188164353</v>
+        <v>0.004039203542217577</v>
       </c>
       <c r="C63">
-        <v>0.02592158567130859</v>
+        <v>0.03482162916713796</v>
       </c>
       <c r="D63">
-        <v>-0.09583427048553629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07597464821543723</v>
+      </c>
+      <c r="E63">
+        <v>-0.02114480894970479</v>
+      </c>
+      <c r="F63">
+        <v>0.01929779734709879</v>
+      </c>
+      <c r="G63">
+        <v>0.031019169415198</v>
+      </c>
+      <c r="H63">
+        <v>-0.05300493412423975</v>
+      </c>
+      <c r="I63">
+        <v>0.008865477142654151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05030490810047201</v>
+        <v>0.0274830992830844</v>
       </c>
       <c r="C64">
-        <v>0.08450750729102156</v>
+        <v>0.09634931801973404</v>
       </c>
       <c r="D64">
-        <v>-0.06578415367894026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05236674152113471</v>
+      </c>
+      <c r="E64">
+        <v>-0.02289556878100418</v>
+      </c>
+      <c r="F64">
+        <v>0.03468030466180175</v>
+      </c>
+      <c r="G64">
+        <v>-0.01754833329935255</v>
+      </c>
+      <c r="H64">
+        <v>-0.122087469695994</v>
+      </c>
+      <c r="I64">
+        <v>0.009092528860215323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02105909933588683</v>
+        <v>0.01658451727088363</v>
       </c>
       <c r="C65">
-        <v>0.02033428026945236</v>
+        <v>0.03714224036482231</v>
       </c>
       <c r="D65">
-        <v>-0.1207368988784421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1082663554039099</v>
+      </c>
+      <c r="E65">
+        <v>-0.04006264805546084</v>
+      </c>
+      <c r="F65">
+        <v>0.009244687397001846</v>
+      </c>
+      <c r="G65">
+        <v>0.01287360312381247</v>
+      </c>
+      <c r="H65">
+        <v>-0.01467403251139164</v>
+      </c>
+      <c r="I65">
+        <v>0.007104197676663345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02306327817156426</v>
+        <v>0.01233043502901371</v>
       </c>
       <c r="C66">
-        <v>0.06604691990766977</v>
+        <v>0.08572619600103529</v>
       </c>
       <c r="D66">
-        <v>-0.1198041608314641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1309030141492754</v>
+      </c>
+      <c r="E66">
+        <v>-0.0371770181998467</v>
+      </c>
+      <c r="F66">
+        <v>-0.0208590732401424</v>
+      </c>
+      <c r="G66">
+        <v>0.01433473046405261</v>
+      </c>
+      <c r="H66">
+        <v>-0.05554868849319375</v>
+      </c>
+      <c r="I66">
+        <v>-0.0504584835526828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0305460947148371</v>
+        <v>0.03000441229583763</v>
       </c>
       <c r="C67">
-        <v>0.02219930541094242</v>
+        <v>0.0292184545007328</v>
       </c>
       <c r="D67">
-        <v>-0.04019611074404636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03381808001111548</v>
+      </c>
+      <c r="E67">
+        <v>-0.002022289059433764</v>
+      </c>
+      <c r="F67">
+        <v>-0.03198972640310833</v>
+      </c>
+      <c r="G67">
+        <v>0.02957906396753238</v>
+      </c>
+      <c r="H67">
+        <v>-0.05424396604665915</v>
+      </c>
+      <c r="I67">
+        <v>0.005000192838080535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2133239507446077</v>
+        <v>0.2594337732103105</v>
       </c>
       <c r="C68">
-        <v>-0.1609139438432425</v>
+        <v>-0.1008471318783181</v>
       </c>
       <c r="D68">
-        <v>-0.03556813339348935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03637990888941636</v>
+      </c>
+      <c r="E68">
+        <v>0.002422979842846088</v>
+      </c>
+      <c r="F68">
+        <v>0.02675933653432873</v>
+      </c>
+      <c r="G68">
+        <v>0.04700497082111158</v>
+      </c>
+      <c r="H68">
+        <v>0.04805307665498296</v>
+      </c>
+      <c r="I68">
+        <v>0.06391451734466176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06174465146446725</v>
+        <v>0.03518843382937559</v>
       </c>
       <c r="C69">
-        <v>0.1108607772541206</v>
+        <v>0.115538496538257</v>
       </c>
       <c r="D69">
-        <v>-0.08424744171563094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04474189641903752</v>
+      </c>
+      <c r="E69">
+        <v>-0.005794367045118421</v>
+      </c>
+      <c r="F69">
+        <v>-0.006446015438593277</v>
+      </c>
+      <c r="G69">
+        <v>-0.0112246327309532</v>
+      </c>
+      <c r="H69">
+        <v>-0.03929170269045731</v>
+      </c>
+      <c r="I69">
+        <v>0.07713355851220514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2111859660105244</v>
+        <v>0.2570252221811826</v>
       </c>
       <c r="C71">
-        <v>-0.1742517594146849</v>
+        <v>-0.1147114186287801</v>
       </c>
       <c r="D71">
-        <v>-0.0455272220332392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03740878927076023</v>
+      </c>
+      <c r="E71">
+        <v>0.009716051436785236</v>
+      </c>
+      <c r="F71">
+        <v>0.02817991617675427</v>
+      </c>
+      <c r="G71">
+        <v>0.05566038394745273</v>
+      </c>
+      <c r="H71">
+        <v>0.008798135690885266</v>
+      </c>
+      <c r="I71">
+        <v>0.153396998991212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1026467326676142</v>
+        <v>0.06951618628501816</v>
       </c>
       <c r="C72">
-        <v>0.07807275017192891</v>
+        <v>0.1166439146755487</v>
       </c>
       <c r="D72">
-        <v>-0.09701348347517652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07191609515824611</v>
+      </c>
+      <c r="E72">
+        <v>-0.09084824203820947</v>
+      </c>
+      <c r="F72">
+        <v>-0.005253854574657801</v>
+      </c>
+      <c r="G72">
+        <v>0.009587956703873086</v>
+      </c>
+      <c r="H72">
+        <v>-0.05753164272401828</v>
+      </c>
+      <c r="I72">
+        <v>-0.004990746812411019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1854741353075381</v>
+        <v>0.1505241960515255</v>
       </c>
       <c r="C73">
-        <v>0.06100261843837895</v>
+        <v>0.1261124594942952</v>
       </c>
       <c r="D73">
-        <v>-0.1993306652279991</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06307535373885771</v>
+      </c>
+      <c r="E73">
+        <v>-0.4462690796408619</v>
+      </c>
+      <c r="F73">
+        <v>-0.2345767681738531</v>
+      </c>
+      <c r="G73">
+        <v>-0.4221515624947666</v>
+      </c>
+      <c r="H73">
+        <v>0.01144980135357967</v>
+      </c>
+      <c r="I73">
+        <v>-0.04742146834485161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09689006734107368</v>
+        <v>0.06245688222495371</v>
       </c>
       <c r="C74">
-        <v>0.1105298211236271</v>
+        <v>0.1317717618967634</v>
       </c>
       <c r="D74">
-        <v>0.01273519883053108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02562726237300565</v>
+      </c>
+      <c r="E74">
+        <v>0.02315473958472897</v>
+      </c>
+      <c r="F74">
+        <v>0.06044485136672125</v>
+      </c>
+      <c r="G74">
+        <v>0.004502889089440873</v>
+      </c>
+      <c r="H74">
+        <v>0.01946830673647119</v>
+      </c>
+      <c r="I74">
+        <v>0.09512951403077345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2432380111114408</v>
+        <v>0.1655126516214228</v>
       </c>
       <c r="C75">
-        <v>0.1963892688379725</v>
+        <v>0.2533975635564741</v>
       </c>
       <c r="D75">
-        <v>0.09759879402601841</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1221210093791195</v>
+      </c>
+      <c r="E75">
+        <v>0.08118829302384789</v>
+      </c>
+      <c r="F75">
+        <v>-0.0299307064674377</v>
+      </c>
+      <c r="G75">
+        <v>0.04988059618758888</v>
+      </c>
+      <c r="H75">
+        <v>0.0239391836660916</v>
+      </c>
+      <c r="I75">
+        <v>0.08662608825187422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1356701914678831</v>
+        <v>0.0873197564576069</v>
       </c>
       <c r="C76">
-        <v>0.1422380905827424</v>
+        <v>0.1732966991780044</v>
       </c>
       <c r="D76">
-        <v>-0.0183922967670713</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01274245027911876</v>
+      </c>
+      <c r="E76">
+        <v>0.03857778478977748</v>
+      </c>
+      <c r="F76">
+        <v>0.01492599414140856</v>
+      </c>
+      <c r="G76">
+        <v>0.05650204779037257</v>
+      </c>
+      <c r="H76">
+        <v>-0.01022670024742852</v>
+      </c>
+      <c r="I76">
+        <v>0.09327195538254408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02358646497327641</v>
+        <v>0.0341226382933507</v>
       </c>
       <c r="C77">
-        <v>0.08096674485950571</v>
+        <v>0.09443000297650456</v>
       </c>
       <c r="D77">
-        <v>-0.05311670624107912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2433348659342335</v>
+      </c>
+      <c r="E77">
+        <v>0.6946214959212422</v>
+      </c>
+      <c r="F77">
+        <v>-0.3981662362275132</v>
+      </c>
+      <c r="G77">
+        <v>-0.3551140459281573</v>
+      </c>
+      <c r="H77">
+        <v>0.2041584355253617</v>
+      </c>
+      <c r="I77">
+        <v>0.1194902299315271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02032885633958428</v>
+        <v>0.0184137350039989</v>
       </c>
       <c r="C78">
-        <v>0.0716636937181343</v>
+        <v>0.08205579957626302</v>
       </c>
       <c r="D78">
-        <v>-0.161618661763098</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.145899481449056</v>
+      </c>
+      <c r="E78">
+        <v>-0.04768710589189321</v>
+      </c>
+      <c r="F78">
+        <v>0.03614671188178072</v>
+      </c>
+      <c r="G78">
+        <v>0.01271218595800312</v>
+      </c>
+      <c r="H78">
+        <v>-0.02037013889400243</v>
+      </c>
+      <c r="I78">
+        <v>-0.03395055604320481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06654940583373213</v>
+        <v>0.04269287736622482</v>
       </c>
       <c r="C79">
-        <v>0.1434307408907903</v>
+        <v>0.1621040646289862</v>
       </c>
       <c r="D79">
-        <v>0.07691756109496947</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03180949021861219</v>
+      </c>
+      <c r="E79">
+        <v>0.1542686620850227</v>
+      </c>
+      <c r="F79">
+        <v>0.7789038928665167</v>
+      </c>
+      <c r="G79">
+        <v>-0.4741308951683417</v>
+      </c>
+      <c r="H79">
+        <v>0.05657525643178907</v>
+      </c>
+      <c r="I79">
+        <v>-0.1513475462328119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01180920958432497</v>
+        <v>0.00588116756217817</v>
       </c>
       <c r="C80">
-        <v>0.05469605461470078</v>
+        <v>0.05506296716445635</v>
       </c>
       <c r="D80">
-        <v>-0.04376610546926317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0378515991872598</v>
+      </c>
+      <c r="E80">
+        <v>-0.01839480797922747</v>
+      </c>
+      <c r="F80">
+        <v>0.008668993027999795</v>
+      </c>
+      <c r="G80">
+        <v>0.06377801212439907</v>
+      </c>
+      <c r="H80">
+        <v>-0.009272533019763976</v>
+      </c>
+      <c r="I80">
+        <v>0.005998709063750012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1229141007457984</v>
+        <v>0.07478381141921005</v>
       </c>
       <c r="C81">
-        <v>0.1406964754581567</v>
+        <v>0.1644170742110455</v>
       </c>
       <c r="D81">
-        <v>0.06588432400657987</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07295973911744751</v>
+      </c>
+      <c r="E81">
+        <v>0.07638829124917287</v>
+      </c>
+      <c r="F81">
+        <v>0.050832618128571</v>
+      </c>
+      <c r="G81">
+        <v>0.0747612096939059</v>
+      </c>
+      <c r="H81">
+        <v>-0.03974464022960024</v>
+      </c>
+      <c r="I81">
+        <v>0.1192381576406068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2348774830291694</v>
+        <v>0.1357534026213406</v>
       </c>
       <c r="C82">
-        <v>0.3026807864767254</v>
+        <v>0.3176153184828568</v>
       </c>
       <c r="D82">
-        <v>0.2098908986917056</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2131192888991768</v>
+      </c>
+      <c r="E82">
+        <v>0.04823904360266891</v>
+      </c>
+      <c r="F82">
+        <v>-0.08565150841961426</v>
+      </c>
+      <c r="G82">
+        <v>0.09971604054739856</v>
+      </c>
+      <c r="H82">
+        <v>-0.05786074617588145</v>
+      </c>
+      <c r="I82">
+        <v>0.1099481726520153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.00647517495805737</v>
+        <v>-0.003601839366272187</v>
       </c>
       <c r="C83">
-        <v>0.06119700463258925</v>
+        <v>0.05160702726461901</v>
       </c>
       <c r="D83">
-        <v>-0.02563067556044048</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04792127924841751</v>
+      </c>
+      <c r="E83">
+        <v>0.09417990413205442</v>
+      </c>
+      <c r="F83">
+        <v>-0.02354076990418829</v>
+      </c>
+      <c r="G83">
+        <v>0.03389152562465802</v>
+      </c>
+      <c r="H83">
+        <v>-0.05161098883323983</v>
+      </c>
+      <c r="I83">
+        <v>-0.1137791632100684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001499161265396552</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01343946417219269</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03338982706178147</v>
+      </c>
+      <c r="E84">
+        <v>0.006789329932268324</v>
+      </c>
+      <c r="F84">
+        <v>0.01718059046143837</v>
+      </c>
+      <c r="G84">
+        <v>0.03638145801274914</v>
+      </c>
+      <c r="H84">
+        <v>0.008546980119672231</v>
+      </c>
+      <c r="I84">
+        <v>-0.02895351068027025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1533919662355158</v>
+        <v>0.09712448008918788</v>
       </c>
       <c r="C85">
-        <v>0.1449752395964275</v>
+        <v>0.1875119550493064</v>
       </c>
       <c r="D85">
-        <v>0.04780617093706874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08588701470636514</v>
+      </c>
+      <c r="E85">
+        <v>5.448201060770875e-05</v>
+      </c>
+      <c r="F85">
+        <v>0.07337791903142292</v>
+      </c>
+      <c r="G85">
+        <v>0.01122806748870685</v>
+      </c>
+      <c r="H85">
+        <v>0.01130394620745461</v>
+      </c>
+      <c r="I85">
+        <v>0.08119386435916469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.007229372084992494</v>
+        <v>0.008635334906333416</v>
       </c>
       <c r="C86">
-        <v>0.02535151065000603</v>
+        <v>0.02840919780532964</v>
       </c>
       <c r="D86">
-        <v>-0.09124745918488218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.107347014476685</v>
+      </c>
+      <c r="E86">
+        <v>0.04399944773040345</v>
+      </c>
+      <c r="F86">
+        <v>-0.01618605455299814</v>
+      </c>
+      <c r="G86">
+        <v>0.01824114266619222</v>
+      </c>
+      <c r="H86">
+        <v>-0.007979026292672881</v>
+      </c>
+      <c r="I86">
+        <v>0.09466004592204061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01730228935730971</v>
+        <v>0.02003739914763287</v>
       </c>
       <c r="C87">
-        <v>0.02471388527258701</v>
+        <v>0.04478021974416508</v>
       </c>
       <c r="D87">
-        <v>-0.1272137165015922</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1512944423616222</v>
+      </c>
+      <c r="E87">
+        <v>0.01509424637499898</v>
+      </c>
+      <c r="F87">
+        <v>0.03346593643952538</v>
+      </c>
+      <c r="G87">
+        <v>0.05831341301470858</v>
+      </c>
+      <c r="H87">
+        <v>-0.01661600425665779</v>
+      </c>
+      <c r="I87">
+        <v>-0.083661015431255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05944678165088235</v>
+        <v>0.04137310354236666</v>
       </c>
       <c r="C88">
-        <v>0.04503872794991867</v>
+        <v>0.06257594868181382</v>
       </c>
       <c r="D88">
-        <v>-0.04342026581432994</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01196592289974182</v>
+      </c>
+      <c r="E88">
+        <v>-0.02059976301372062</v>
+      </c>
+      <c r="F88">
+        <v>0.02362205636347091</v>
+      </c>
+      <c r="G88">
+        <v>-0.009299626332451651</v>
+      </c>
+      <c r="H88">
+        <v>-0.02212421968237267</v>
+      </c>
+      <c r="I88">
+        <v>0.03964587352210253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3257376268436498</v>
+        <v>0.3919246345344276</v>
       </c>
       <c r="C89">
-        <v>-0.328691347968347</v>
+        <v>-0.2169799418811252</v>
       </c>
       <c r="D89">
-        <v>-0.009013739740701156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02169189564040828</v>
+      </c>
+      <c r="E89">
+        <v>0.05184044241581953</v>
+      </c>
+      <c r="F89">
+        <v>0.04784772560872802</v>
+      </c>
+      <c r="G89">
+        <v>0.08953599994378514</v>
+      </c>
+      <c r="H89">
+        <v>-0.1585979651710426</v>
+      </c>
+      <c r="I89">
+        <v>-0.3938463143285646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2596336073786121</v>
+        <v>0.3050864319060365</v>
       </c>
       <c r="C90">
-        <v>-0.235347694216435</v>
+        <v>-0.1455824776304163</v>
       </c>
       <c r="D90">
-        <v>-0.03625520802818903</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03923123880270055</v>
+      </c>
+      <c r="E90">
+        <v>0.007556811660990316</v>
+      </c>
+      <c r="F90">
+        <v>-0.01680056879672242</v>
+      </c>
+      <c r="G90">
+        <v>0.0499075646667376</v>
+      </c>
+      <c r="H90">
+        <v>0.03819975958280278</v>
+      </c>
+      <c r="I90">
+        <v>0.06193324699042785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1526787816313748</v>
+        <v>0.09564006341542644</v>
       </c>
       <c r="C91">
-        <v>0.1883876909351102</v>
+        <v>0.2065192684457945</v>
       </c>
       <c r="D91">
-        <v>0.1013612848600026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.103631003735207</v>
+      </c>
+      <c r="E91">
+        <v>0.07909367111933813</v>
+      </c>
+      <c r="F91">
+        <v>0.07708423566218775</v>
+      </c>
+      <c r="G91">
+        <v>0.0143968073610184</v>
+      </c>
+      <c r="H91">
+        <v>0.01028889364037281</v>
+      </c>
+      <c r="I91">
+        <v>0.09971798001726884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.230943990075489</v>
+        <v>0.308191659949393</v>
       </c>
       <c r="C92">
-        <v>-0.2518099227685123</v>
+        <v>-0.1862160266190398</v>
       </c>
       <c r="D92">
-        <v>0.02219032973591096</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01402283821671246</v>
+      </c>
+      <c r="E92">
+        <v>0.08440142519332289</v>
+      </c>
+      <c r="F92">
+        <v>0.03299497317646293</v>
+      </c>
+      <c r="G92">
+        <v>0.03638339448186054</v>
+      </c>
+      <c r="H92">
+        <v>-0.004766616542743319</v>
+      </c>
+      <c r="I92">
+        <v>-0.003958318236392232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2861278387186842</v>
+        <v>0.3258113445792637</v>
       </c>
       <c r="C93">
-        <v>-0.2491600216661454</v>
+        <v>-0.1546791319576539</v>
       </c>
       <c r="D93">
-        <v>-0.02825720657239934</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001585233160846087</v>
+      </c>
+      <c r="E93">
+        <v>-0.03550469080844885</v>
+      </c>
+      <c r="F93">
+        <v>0.01851878821873966</v>
+      </c>
+      <c r="G93">
+        <v>-0.03101339368010034</v>
+      </c>
+      <c r="H93">
+        <v>0.01582790697670344</v>
+      </c>
+      <c r="I93">
+        <v>0.1293579244266182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3019069667013982</v>
+        <v>0.1961843123901685</v>
       </c>
       <c r="C94">
-        <v>0.2787679183547392</v>
+        <v>0.3471902401818892</v>
       </c>
       <c r="D94">
-        <v>0.3693041775789846</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3591143640675548</v>
+      </c>
+      <c r="E94">
+        <v>0.05408887933401502</v>
+      </c>
+      <c r="F94">
+        <v>-0.09801747554140544</v>
+      </c>
+      <c r="G94">
+        <v>0.2775276794646145</v>
+      </c>
+      <c r="H94">
+        <v>0.1351910302958775</v>
+      </c>
+      <c r="I94">
+        <v>-0.4256452059075794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03172286596244604</v>
+        <v>0.02849925555246162</v>
       </c>
       <c r="C95">
-        <v>0.04367295166308401</v>
+        <v>0.06478823042131124</v>
       </c>
       <c r="D95">
-        <v>-0.07583646689600439</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.107413692134196</v>
+      </c>
+      <c r="E95">
+        <v>0.2088160650602555</v>
+      </c>
+      <c r="F95">
+        <v>-0.1665558376969687</v>
+      </c>
+      <c r="G95">
+        <v>-0.1289924787869898</v>
+      </c>
+      <c r="H95">
+        <v>-0.4680963356074847</v>
+      </c>
+      <c r="I95">
+        <v>-0.4860705594804408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.000145279394866658</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001362925683881219</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001613276325773615</v>
+      </c>
+      <c r="E97">
+        <v>-0.0004282420499514736</v>
+      </c>
+      <c r="F97">
+        <v>-0.001511695728348468</v>
+      </c>
+      <c r="G97">
+        <v>-0.001240211552995833</v>
+      </c>
+      <c r="H97">
+        <v>-0.001498451659609669</v>
+      </c>
+      <c r="I97">
+        <v>0.0002622162012842106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1521632533978171</v>
+        <v>0.1290879765945964</v>
       </c>
       <c r="C98">
-        <v>0.07688325327202934</v>
+        <v>0.1257110775883747</v>
       </c>
       <c r="D98">
-        <v>-0.1310156301716522</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06232096454459235</v>
+      </c>
+      <c r="E98">
+        <v>-0.289049833856587</v>
+      </c>
+      <c r="F98">
+        <v>-0.1429752142010315</v>
+      </c>
+      <c r="G98">
+        <v>-0.2463748770068106</v>
+      </c>
+      <c r="H98">
+        <v>0.0561774227284016</v>
+      </c>
+      <c r="I98">
+        <v>0.00646566191038229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.004621054190528235</v>
+        <v>-0.001188845629562721</v>
       </c>
       <c r="C101">
-        <v>0.02028758662300437</v>
+        <v>0.02546369522858187</v>
       </c>
       <c r="D101">
-        <v>-0.1033077145789855</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1041427551584714</v>
+      </c>
+      <c r="E101">
+        <v>-0.03232249067774635</v>
+      </c>
+      <c r="F101">
+        <v>0.03014772642977261</v>
+      </c>
+      <c r="G101">
+        <v>0.05120267760278463</v>
+      </c>
+      <c r="H101">
+        <v>-0.09856779914673108</v>
+      </c>
+      <c r="I101">
+        <v>0.01889779359736964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1086390244113153</v>
+        <v>0.05942066258051715</v>
       </c>
       <c r="C102">
-        <v>0.1515820034395415</v>
+        <v>0.1505994314396003</v>
       </c>
       <c r="D102">
-        <v>0.07097622410475513</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.086260313459863</v>
+      </c>
+      <c r="E102">
+        <v>0.03181532277990163</v>
+      </c>
+      <c r="F102">
+        <v>-0.05837035809514814</v>
+      </c>
+      <c r="G102">
+        <v>0.00361223676800526</v>
+      </c>
+      <c r="H102">
+        <v>-0.05457310854731346</v>
+      </c>
+      <c r="I102">
+        <v>0.03536742815718474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
